--- a/AE Sakib/Satkhira DIV-I/2021-22/Satkhira-1/Chadnimukha/Input Output/Hydraulic_Calcualtion_Chadnumukha_input.xlsx
+++ b/AE Sakib/Satkhira DIV-I/2021-22/Satkhira-1/Chadnimukha/Input Output/Hydraulic_Calcualtion_Chadnumukha_input.xlsx
@@ -174,7 +174,7 @@
     <t>pcf</t>
   </si>
   <si>
-    <t>fee-pwd</t>
+    <t>feet-pwd</t>
   </si>
   <si>
     <t>Q</t>
@@ -1316,7 +1316,7 @@
         <v>44</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -3910,7 +3910,7 @@
         <v>44</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="E11" t="s">
         <v>138</v>
